--- a/--- percentage_difference_2022-01.xlsx
+++ b/--- percentage_difference_2022-01.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmi\Coding\BM_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ADBFD4-36C3-49E7-AB67-8B3033EAE8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B1FA83-4451-483F-9FAA-1971C1914F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2664" yWindow="2400" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022-01" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>BMU_ID</t>
   </si>
@@ -329,6 +342,18 @@
   </si>
   <si>
     <t>T_TDBNW-1</t>
+  </si>
+  <si>
+    <t>Over 15%:</t>
+  </si>
+  <si>
+    <t>Under -15%:</t>
+  </si>
+  <si>
+    <t>Between -15% and 0%</t>
+  </si>
+  <si>
+    <t>Between 0% and 15%</t>
   </si>
 </sst>
 </file>
@@ -691,15 +716,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F2" sqref="F2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -726,8 +751,15 @@
       <c r="D2">
         <v>-39.228175099260923</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2">
+        <f>COUNT(D2:D14)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -740,8 +772,15 @@
       <c r="D3">
         <v>-32.0740878133604</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3">
+        <f>COUNT(D15:D52)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -754,8 +793,15 @@
       <c r="D4">
         <v>-25.83722574320312</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4">
+        <f>COUNT(D53:D96)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -768,8 +814,14 @@
       <c r="D5">
         <v>-24.414897401271372</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -783,7 +835,7 @@
         <v>-24.374265485653108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -797,7 +849,7 @@
         <v>-23.10142248415341</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -811,7 +863,7 @@
         <v>-22.304172515755219</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -825,7 +877,7 @@
         <v>-21.846130754239649</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -839,7 +891,7 @@
         <v>-19.08378921852189</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -853,7 +905,7 @@
         <v>-18.21631878557875</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -867,7 +919,7 @@
         <v>-17.963726911212699</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -881,7 +933,7 @@
         <v>-17.20250364845143</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -895,7 +947,7 @@
         <v>-15.56616597634612</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -909,7 +961,7 @@
         <v>-14.59559091946155</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
